--- a/cta策略/result/螺纹/CMO_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/CMO_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>参数</t>
   </si>
@@ -32,6 +32,30 @@
   </si>
   <si>
     <t>绩效数据</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -416,77 +440,77 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.03940996867311297</v>
+        <v>0.04439226561958565</v>
       </c>
       <c r="D2">
-        <v>-0.2897581936295663</v>
+        <v>0.02010864229146123</v>
       </c>
       <c r="E2">
-        <v>-0.09004972634109161</v>
+        <v>0.1221748348268835</v>
       </c>
       <c r="F2">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.02366717367964122</v>
+        <v>0.07046188834083478</v>
       </c>
       <c r="D3">
-        <v>-0.06007665264428593</v>
+        <v>0.1397857566308588</v>
       </c>
       <c r="E3">
-        <v>0.04722060294805255</v>
+        <v>0.1607260046032569</v>
       </c>
       <c r="F3">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1507900354958525</v>
+        <v>0.1383067525153385</v>
       </c>
       <c r="D4">
-        <v>0.4111463869589441</v>
+        <v>0.4524763442258909</v>
       </c>
       <c r="E4">
-        <v>0.4284888338397416</v>
+        <v>0.44506483272235</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1371587492034352</v>
+        <v>0.1268318226313288</v>
       </c>
       <c r="D5">
-        <v>0.3605716184529604</v>
+        <v>0.3994452096940411</v>
       </c>
       <c r="E5">
-        <v>0.3797688813961529</v>
+        <v>0.4101511425904404</v>
       </c>
       <c r="F5">
         <v>0.75</v>
@@ -496,17 +520,17 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>12</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1620869971850574</v>
+        <v>0.138020688816187</v>
       </c>
       <c r="D6">
-        <v>0.4537673833658803</v>
+        <v>0.4510826010831748</v>
       </c>
       <c r="E6">
-        <v>0.4487908935253612</v>
+        <v>0.4463339093031047</v>
       </c>
       <c r="F6">
         <v>0.75</v>
@@ -516,17 +540,17 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>14</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1275207362370159</v>
+        <v>0.1133589737738159</v>
       </c>
       <c r="D7">
-        <v>0.3256127389352492</v>
+        <v>0.3376388303939838</v>
       </c>
       <c r="E7">
-        <v>0.2730085090810684</v>
+        <v>0.2657932786623008</v>
       </c>
       <c r="F7">
         <v>0.75</v>
@@ -536,17 +560,17 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>20</v>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0.07637027897777515</v>
+        <v>0.07467395430597445</v>
       </c>
       <c r="D8">
-        <v>0.1355804062280595</v>
+        <v>0.1596915136216978</v>
       </c>
       <c r="E8">
-        <v>0.1720301712983979</v>
+        <v>0.1839561942271369</v>
       </c>
       <c r="F8">
         <v>0.65</v>
@@ -556,17 +580,17 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>60</v>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0.2126560341909629</v>
+        <v>0.1420660051600979</v>
       </c>
       <c r="D9">
-        <v>0.6535337741271752</v>
+        <v>0.4741754656299113</v>
       </c>
       <c r="E9">
-        <v>0.6707199974385826</v>
+        <v>0.4268648682769235</v>
       </c>
       <c r="F9">
         <v>0.7</v>

--- a/cta策略/result/螺纹/CMO_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/CMO_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>参数</t>
   </si>
@@ -52,10 +52,31 @@
     <t>14</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
@@ -413,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,16 +465,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.04439226561958565</v>
+        <v>-0.02306108721331357</v>
       </c>
       <c r="D2">
-        <v>0.02010864229146123</v>
+        <v>-0.2835985131654983</v>
       </c>
       <c r="E2">
-        <v>0.1221748348268835</v>
+        <v>-0.05418882001821116</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,16 +485,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.07046188834083478</v>
+        <v>0.01934695003943676</v>
       </c>
       <c r="D3">
-        <v>0.1397857566308588</v>
+        <v>-0.09351346841883094</v>
       </c>
       <c r="E3">
-        <v>0.1607260046032569</v>
+        <v>0.03935778314737069</v>
       </c>
       <c r="F3">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,16 +505,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1383067525153385</v>
+        <v>0.1009686095291344</v>
       </c>
       <c r="D4">
-        <v>0.4524763442258909</v>
+        <v>0.2780008915939205</v>
       </c>
       <c r="E4">
-        <v>0.44506483272235</v>
+        <v>0.2940093444487341</v>
       </c>
       <c r="F4">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,13 +525,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1268318226313288</v>
+        <v>0.09167766195573668</v>
       </c>
       <c r="D5">
-        <v>0.3994452096940411</v>
+        <v>0.2356112015365879</v>
       </c>
       <c r="E5">
-        <v>0.4101511425904404</v>
+        <v>0.2597009914937894</v>
       </c>
       <c r="F5">
         <v>0.75</v>
@@ -524,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.138020688816187</v>
+        <v>0.1078752478523637</v>
       </c>
       <c r="D6">
-        <v>0.4510826010831748</v>
+        <v>0.3098025342592791</v>
       </c>
       <c r="E6">
-        <v>0.4463339093031047</v>
+        <v>0.305584896334109</v>
       </c>
       <c r="F6">
         <v>0.75</v>
@@ -544,13 +565,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1133589737738159</v>
+        <v>0.08628706317433732</v>
       </c>
       <c r="D7">
-        <v>0.3376388303939838</v>
+        <v>0.2114645713509939</v>
       </c>
       <c r="E7">
-        <v>0.2657932786623008</v>
+        <v>0.1873497256453841</v>
       </c>
       <c r="F7">
         <v>0.75</v>
@@ -564,16 +585,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.07467395430597445</v>
+        <v>0.1148929783561927</v>
       </c>
       <c r="D8">
-        <v>0.1596915136216978</v>
+        <v>0.3428076666992089</v>
       </c>
       <c r="E8">
-        <v>0.1839561942271369</v>
+        <v>0.2921940525856195</v>
       </c>
       <c r="F8">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,16 +605,156 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.1420660051600979</v>
+        <v>0.05243080058463345</v>
       </c>
       <c r="D9">
-        <v>0.4741754656299113</v>
+        <v>0.05687481220835424</v>
       </c>
       <c r="E9">
-        <v>0.4268648682769235</v>
+        <v>0.119752432549902</v>
       </c>
       <c r="F9">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.05010639379488935</v>
+      </c>
+      <c r="D10">
+        <v>0.04635294277791372</v>
+      </c>
+      <c r="E10">
+        <v>0.09315240054520806</v>
+      </c>
+      <c r="F10">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0.09777428618781414</v>
+      </c>
+      <c r="D11">
+        <v>0.266164871732727</v>
+      </c>
+      <c r="E11">
+        <v>0.2442234519971201</v>
+      </c>
+      <c r="F11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.1404142544184328</v>
+      </c>
+      <c r="D12">
+        <v>0.464013790742511</v>
+      </c>
+      <c r="E12">
+        <v>0.4247356842741367</v>
+      </c>
+      <c r="F12">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0.131014090580269</v>
+      </c>
+      <c r="D13">
+        <v>0.4216349655598974</v>
+      </c>
+      <c r="E13">
+        <v>0.3834896146667471</v>
+      </c>
+      <c r="F13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0.1724426813060582</v>
+      </c>
+      <c r="D14">
+        <v>0.6203362494596391</v>
+      </c>
+      <c r="E14">
+        <v>0.4426969118729787</v>
+      </c>
+      <c r="F14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0.1368094570295633</v>
+      </c>
+      <c r="D15">
+        <v>0.4540863891714463</v>
+      </c>
+      <c r="E15">
+        <v>0.3239813974012494</v>
+      </c>
+      <c r="F15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0.1453886060154377</v>
+      </c>
+      <c r="D16">
+        <v>0.4957340603943637</v>
+      </c>
+      <c r="E16">
+        <v>0.3444795150495893</v>
+      </c>
+      <c r="F16">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
